--- a/banco de dados/bd_agrotec_20190046.xlsx
+++ b/banco de dados/bd_agrotec_20190046.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Compartilhado\Ti\Automações 2024\Executáveis\CONTÁBIL\FOPAG SOLUTION\banco de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77009A72-DB72-4EA3-8BB2-8CA2DEC2231A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381BC9D2-1D94-48E2-9B3F-D95E1D427455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eventos" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="empresas" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">eventos!$A$1:$O$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">eventos!$A$1:$O$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="135">
   <si>
     <t>DESCRIÇÃO</t>
   </si>
@@ -397,10 +397,55 @@
     <t xml:space="preserve">Gratificação  </t>
   </si>
   <si>
-    <t>Valor GFD Mensal 2%</t>
-  </si>
-  <si>
-    <t>Valor GFD Mensal 8%</t>
+    <t>VALOR GFD MENSAL 8%</t>
+  </si>
+  <si>
+    <t>VALOR GFD 2%</t>
+  </si>
+  <si>
+    <t>Resc. aviso prévio indenizado</t>
+  </si>
+  <si>
+    <t>Resc. aviso prévio quinquênio</t>
+  </si>
+  <si>
+    <t>Rescisão férias proporc. Quinquênio</t>
+  </si>
+  <si>
+    <t>Resc. fér. proporc. adicionais</t>
+  </si>
+  <si>
+    <t>Rescisão férias vencidas quinquoênio</t>
+  </si>
+  <si>
+    <t>Resc. férias venc. Adicionais</t>
+  </si>
+  <si>
+    <t>Rescisão 13° salário quinquênio</t>
+  </si>
+  <si>
+    <t>Resc. 13º salário adicionais</t>
+  </si>
+  <si>
+    <t>Faltas não justificadas dias</t>
+  </si>
+  <si>
+    <t>Faltas não justificadas horas</t>
+  </si>
+  <si>
+    <t>DSR faltas dia</t>
+  </si>
+  <si>
+    <t>Salário família</t>
+  </si>
+  <si>
+    <t>Complemento ADC na folha normal - NÃO CONTABILIZAR</t>
+  </si>
+  <si>
+    <t>Taxa assistencial convenção</t>
+  </si>
+  <si>
+    <t>Indenização artigo 479</t>
   </si>
 </sst>
 </file>
@@ -410,7 +455,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,11 +626,18 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -939,7 +991,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -992,15 +1044,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1326,23 +1379,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O235"/>
+  <dimension ref="A1:O250"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="15" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="15" customWidth="1"/>
     <col min="7" max="7" width="21" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="13"/>
+    <col min="8" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>73</v>
       </c>
@@ -1365,7 +1421,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>5</v>
       </c>
@@ -1388,7 +1444,7 @@
         <v>4066</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>35</v>
       </c>
@@ -1411,7 +1467,7 @@
         <v>5016</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>152</v>
       </c>
@@ -1434,61 +1490,61 @@
         <v>4068</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
+        <v>154</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2257</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2257</v>
+      </c>
+      <c r="F5" s="12">
+        <v>5027</v>
+      </c>
+      <c r="G5" s="12">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>203</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12">
-        <v>2257</v>
-      </c>
-      <c r="E5" s="12">
-        <v>2257</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="D6" s="12">
+        <v>2257</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2257</v>
+      </c>
+      <c r="F6" s="12">
         <v>5026</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G6" s="12">
         <v>4069</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>264</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="B7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>5</v>
-      </c>
-      <c r="D6" s="12">
-        <v>2257</v>
-      </c>
-      <c r="E6" s="12">
-        <v>2257</v>
-      </c>
-      <c r="F6" s="12">
-        <v>5027</v>
-      </c>
-      <c r="G6" s="12">
-        <v>4066</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>294</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>6</v>
       </c>
       <c r="D7" s="12">
         <v>2257</v>
@@ -1503,15 +1559,15 @@
         <v>4066</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="12">
         <v>2257</v>
@@ -1526,15 +1582,15 @@
         <v>4066</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="12">
         <v>2257</v>
@@ -1549,61 +1605,61 @@
         <v>4066</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D10" s="12">
-        <v>1136</v>
+        <v>2257</v>
       </c>
       <c r="E10" s="12">
-        <v>1136</v>
+        <v>2257</v>
       </c>
       <c r="F10" s="12">
-        <v>2257</v>
+        <v>5027</v>
       </c>
       <c r="G10" s="12">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <v>441</v>
+        <v>521</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D11" s="12">
-        <v>2311</v>
+        <v>2257</v>
       </c>
       <c r="E11" s="12">
-        <v>2311</v>
+        <v>2257</v>
       </c>
       <c r="F11" s="12">
-        <v>2257</v>
+        <v>5027</v>
       </c>
       <c r="G11" s="12">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>521</v>
+        <v>10005</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="12">
         <v>2257</v>
@@ -1612,90 +1668,90 @@
         <v>2257</v>
       </c>
       <c r="F12" s="12">
-        <v>5027</v>
+        <v>5018</v>
       </c>
       <c r="G12" s="12">
-        <v>4066</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <v>803</v>
+        <v>10454</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="D13" s="12">
-        <v>5031</v>
+        <v>2257</v>
       </c>
       <c r="E13" s="12">
-        <v>4079</v>
+        <v>2257</v>
       </c>
       <c r="F13" s="12">
-        <v>2257</v>
+        <v>5018</v>
       </c>
       <c r="G13" s="12">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>822</v>
+        <v>10556</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D14" s="12">
-        <v>5030</v>
+        <v>2257</v>
       </c>
       <c r="E14" s="12">
-        <v>4066</v>
+        <v>2257</v>
       </c>
       <c r="F14" s="12">
-        <v>2257</v>
+        <v>5018</v>
       </c>
       <c r="G14" s="12">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>3055</v>
+        <v>10701</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D15" s="12">
-        <v>2222</v>
+        <v>2257</v>
       </c>
       <c r="E15" s="12">
-        <v>2222</v>
+        <v>2257</v>
       </c>
       <c r="F15" s="12">
-        <v>2257</v>
+        <v>5018</v>
       </c>
       <c r="G15" s="12">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>10005</v>
+        <v>10751</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D16" s="12">
         <v>2257</v>
@@ -1710,15 +1766,15 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
-        <v>10454</v>
+        <v>10993</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D17" s="12">
         <v>2257</v>
@@ -1733,38 +1789,30 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>10556</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="12">
-        <v>2257</v>
-      </c>
-      <c r="E18" s="12">
-        <v>2257</v>
-      </c>
-      <c r="F18" s="12">
-        <v>5018</v>
-      </c>
-      <c r="G18" s="12">
-        <v>4075</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <v>14802</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
-        <v>10701</v>
+        <v>17005</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D19" s="12">
         <v>2257</v>
@@ -1779,15 +1827,15 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>10751</v>
+        <v>17007</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="D20" s="12">
         <v>2257</v>
@@ -1802,15 +1850,15 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
-        <v>10993</v>
+        <v>17022</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="D21" s="12">
         <v>2257</v>
@@ -1825,61 +1873,61 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>14503</v>
+        <v>17023</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="D22" s="12">
-        <v>1140</v>
+        <v>2257</v>
       </c>
       <c r="E22" s="12">
-        <v>1140</v>
+        <v>2257</v>
       </c>
       <c r="F22" s="12">
-        <v>2257</v>
+        <v>5018</v>
       </c>
       <c r="G22" s="12">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
-        <v>14504</v>
+        <v>17105</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D23" s="12">
+        <v>2257</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2257</v>
+      </c>
+      <c r="F23" s="12">
         <v>5018</v>
       </c>
-      <c r="E23" s="12">
+      <c r="G23" s="12">
         <v>4075</v>
       </c>
-      <c r="F23" s="12">
-        <v>2257</v>
-      </c>
-      <c r="G23" s="12">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
-        <v>17005</v>
+        <v>17905</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D24" s="12">
         <v>2257</v>
@@ -1888,41 +1936,33 @@
         <v>2257</v>
       </c>
       <c r="F24" s="12">
-        <v>5018</v>
+        <v>5017</v>
       </c>
       <c r="G24" s="12">
-        <v>4075</v>
-      </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
-        <v>17007</v>
+        <v>50005</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="D25" s="12">
-        <v>2257</v>
+        <v>2264</v>
       </c>
       <c r="E25" s="12">
-        <v>2257</v>
+        <v>2264</v>
       </c>
       <c r="F25" s="12">
-        <v>5018</v>
+        <v>5017</v>
       </c>
       <c r="G25" s="12">
-        <v>4075</v>
+        <v>4074</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -1933,27 +1973,27 @@
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
-        <v>17105</v>
+        <v>50101</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="D26" s="12">
-        <v>2257</v>
+        <v>2264</v>
       </c>
       <c r="E26" s="12">
-        <v>2257</v>
+        <v>2264</v>
       </c>
       <c r="F26" s="12">
-        <v>5018</v>
+        <v>5017</v>
       </c>
       <c r="G26" s="12">
-        <v>4075</v>
+        <v>4074</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -1964,21 +2004,21 @@
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
-        <v>17905</v>
+        <v>50152</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="D27" s="12">
-        <v>2257</v>
+        <v>2264</v>
       </c>
       <c r="E27" s="12">
-        <v>2257</v>
+        <v>2264</v>
       </c>
       <c r="F27" s="12">
         <v>5017</v>
@@ -1986,16 +2026,24 @@
       <c r="G27" s="12">
         <v>4074</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
-        <v>50005</v>
+        <v>50454</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D28" s="12">
         <v>2264</v>
@@ -2010,15 +2058,15 @@
         <v>4074</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
-        <v>50101</v>
+        <v>50701</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D29" s="12">
         <v>2264</v>
@@ -2033,15 +2081,15 @@
         <v>4074</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
-        <v>50152</v>
+        <v>50751</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D30" s="12">
         <v>2264</v>
@@ -2056,15 +2104,15 @@
         <v>4074</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
-        <v>50454</v>
+        <v>60005</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D31" s="12">
         <v>2264</v>
@@ -2079,15 +2127,15 @@
         <v>4074</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
-        <v>50701</v>
+        <v>60506</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D32" s="12">
         <v>2264</v>
@@ -2102,15 +2150,15 @@
         <v>4074</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
-        <v>50751</v>
+        <v>60701</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D33" s="12">
         <v>2264</v>
@@ -2125,176 +2173,176 @@
         <v>4074</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
-        <v>50835</v>
+        <v>60751</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D34" s="12">
-        <v>2222</v>
+        <v>2264</v>
       </c>
       <c r="E34" s="12">
-        <v>2222</v>
+        <v>2264</v>
       </c>
       <c r="F34" s="12">
-        <v>2264</v>
+        <v>5017</v>
       </c>
       <c r="G34" s="12">
-        <v>2264</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
-        <v>58005</v>
+        <v>70005</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D35" s="12">
-        <v>5017</v>
+        <v>2257</v>
       </c>
       <c r="E35" s="12">
-        <v>4074</v>
+        <v>2257</v>
       </c>
       <c r="F35" s="12">
-        <v>2264</v>
+        <v>5028</v>
       </c>
       <c r="G35" s="12">
-        <v>2264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
-        <v>60005</v>
+        <v>70201</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="D36" s="12">
-        <v>2264</v>
+        <v>2257</v>
       </c>
       <c r="E36" s="12">
-        <v>2264</v>
+        <v>2257</v>
       </c>
       <c r="F36" s="12">
-        <v>5017</v>
+        <v>5014</v>
       </c>
       <c r="G36" s="12">
-        <v>4074</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
-        <v>60506</v>
+        <v>70241</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D37" s="12">
-        <v>2264</v>
+        <v>2257</v>
       </c>
       <c r="E37" s="12">
-        <v>2264</v>
+        <v>2257</v>
       </c>
       <c r="F37" s="12">
-        <v>5017</v>
+        <v>5027</v>
       </c>
       <c r="G37" s="12">
-        <v>4074</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
-        <v>60701</v>
+        <v>70505</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D38" s="12">
-        <v>2264</v>
+        <v>2257</v>
       </c>
       <c r="E38" s="12">
-        <v>2264</v>
+        <v>2257</v>
       </c>
       <c r="F38" s="12">
-        <v>5017</v>
+        <v>5028</v>
       </c>
       <c r="G38" s="12">
-        <v>4074</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
-        <v>60751</v>
+        <v>70507</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="D39" s="12">
-        <v>2264</v>
+        <v>2257</v>
       </c>
       <c r="E39" s="12">
-        <v>2264</v>
+        <v>2257</v>
       </c>
       <c r="F39" s="12">
-        <v>5017</v>
+        <v>5028</v>
       </c>
       <c r="G39" s="12">
-        <v>4074</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
-        <v>68005</v>
+        <v>70791</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="D40" s="12">
-        <v>5017</v>
+        <v>2257</v>
       </c>
       <c r="E40" s="12">
-        <v>4074</v>
+        <v>2257</v>
       </c>
       <c r="F40" s="12">
-        <v>2264</v>
+        <v>5028</v>
       </c>
       <c r="G40" s="12">
-        <v>2264</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
-        <v>70005</v>
+        <v>70791</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="D41" s="12">
         <v>2257</v>
@@ -2309,15 +2357,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
-        <v>70241</v>
+        <v>70901</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="D42" s="12">
         <v>2257</v>
@@ -2326,21 +2374,21 @@
         <v>2257</v>
       </c>
       <c r="F42" s="12">
-        <v>5027</v>
+        <v>5028</v>
       </c>
       <c r="G42" s="12">
-        <v>4066</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
-        <v>70505</v>
+        <v>70951</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="D43" s="12">
         <v>2257</v>
@@ -2355,15 +2403,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
-        <v>70507</v>
+        <v>71005</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D44" s="12">
         <v>2257</v>
@@ -2378,15 +2426,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
-        <v>70901</v>
+        <v>71102</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D45" s="12">
         <v>2257</v>
@@ -2401,15 +2449,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
-        <v>70951</v>
+        <v>71404</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="D46" s="12">
         <v>2257</v>
@@ -2424,15 +2472,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
-        <v>71005</v>
+        <v>71501</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="D47" s="12">
         <v>2257</v>
@@ -2447,15 +2495,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
-        <v>71102</v>
+        <v>71591</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="D48" s="12">
         <v>2257</v>
@@ -2470,15 +2518,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
-        <v>71501</v>
+        <v>71701</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="D49" s="12">
         <v>2257</v>
@@ -2493,15 +2541,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
-        <v>71701</v>
+        <v>71751</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="D50" s="12">
         <v>2257</v>
@@ -2516,15 +2564,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
-        <v>71751</v>
+        <v>71993</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D51" s="12">
         <v>2257</v>
@@ -2539,15 +2587,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
-        <v>71993</v>
+        <v>72003</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D52" s="12">
         <v>2257</v>
@@ -2562,15 +2610,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
-        <v>72003</v>
+        <v>72501</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D53" s="12">
         <v>2257</v>
@@ -2585,15 +2633,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
-        <v>72501</v>
+        <v>72701</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="D54" s="12">
         <v>2257</v>
@@ -2608,15 +2656,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
-        <v>72701</v>
+        <v>72751</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D55" s="12">
         <v>2257</v>
@@ -2631,15 +2679,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
-        <v>72751</v>
+        <v>72993</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="D56" s="12">
         <v>2257</v>
@@ -2654,15 +2702,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
-        <v>72993</v>
+        <v>73005</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="D57" s="12">
         <v>2257</v>
@@ -2677,15 +2725,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
-        <v>73005</v>
+        <v>73102</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="D58" s="12">
         <v>2257</v>
@@ -2700,15 +2748,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
-        <v>73102</v>
+        <v>73404</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="D59" s="12">
         <v>2257</v>
@@ -2723,7 +2771,7 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>73501</v>
       </c>
@@ -2746,15 +2794,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
-        <v>73701</v>
+        <v>73591</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="D61" s="12">
         <v>2257</v>
@@ -2769,15 +2817,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
-        <v>73751</v>
+        <v>73701</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D62" s="12">
         <v>2257</v>
@@ -2792,15 +2840,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
-        <v>73993</v>
+        <v>73751</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D63" s="12">
         <v>2257</v>
@@ -2815,15 +2863,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
-        <v>75005</v>
+        <v>73993</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D64" s="12">
         <v>2257</v>
@@ -2838,15 +2886,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
-        <v>75102</v>
+        <v>75005</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="D65" s="12">
         <v>2257</v>
@@ -2861,15 +2909,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
-        <v>75501</v>
+        <v>75102</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="12">
         <v>2257</v>
@@ -2884,15 +2932,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
-        <v>75701</v>
+        <v>75404</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="D67" s="12">
         <v>2257</v>
@@ -2907,15 +2955,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
-        <v>75751</v>
+        <v>75501</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D68" s="12">
         <v>2257</v>
@@ -2930,15 +2978,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
-        <v>76003</v>
+        <v>75591</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="D69" s="12">
         <v>2257</v>
@@ -2953,15 +3001,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
-        <v>76501</v>
+        <v>75701</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D70" s="12">
         <v>2257</v>
@@ -2976,15 +3024,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
-        <v>76701</v>
+        <v>75751</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D71" s="12">
         <v>2257</v>
@@ -2999,15 +3047,15 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
-        <v>76751</v>
+        <v>76003</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D72" s="12">
         <v>2257</v>
@@ -3022,159 +3070,159 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
-        <v>91005</v>
+        <v>76501</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="D73" s="12">
+        <v>2257</v>
+      </c>
+      <c r="E73" s="12">
+        <v>2257</v>
+      </c>
+      <c r="F73" s="12">
+        <v>5028</v>
+      </c>
+      <c r="G73" s="12">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="12">
+        <v>76701</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="12">
+        <v>2257</v>
+      </c>
+      <c r="E74" s="12">
+        <v>2257</v>
+      </c>
+      <c r="F74" s="12">
+        <v>5028</v>
+      </c>
+      <c r="G74" s="12">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="12">
+        <v>76751</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" s="12">
+        <v>2257</v>
+      </c>
+      <c r="E75" s="12">
+        <v>2257</v>
+      </c>
+      <c r="F75" s="12">
+        <v>5028</v>
+      </c>
+      <c r="G75" s="12">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="12">
+        <v>81505</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" s="12">
+        <v>2257</v>
+      </c>
+      <c r="E76" s="12">
+        <v>2257</v>
+      </c>
+      <c r="F76" s="12">
+        <v>5027</v>
+      </c>
+      <c r="G76" s="12">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="12">
+        <v>81532</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" s="12">
+        <v>2257</v>
+      </c>
+      <c r="E77" s="12">
+        <v>2257</v>
+      </c>
+      <c r="F77" s="12">
+        <v>5027</v>
+      </c>
+      <c r="G77" s="12">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="12">
+        <v>95005</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D78" s="12">
+        <v>2257</v>
+      </c>
+      <c r="E78" s="12">
+        <v>2257</v>
+      </c>
+      <c r="F78" s="12">
         <v>2292</v>
       </c>
-      <c r="E73" s="12">
+      <c r="G78" s="12">
         <v>2292</v>
       </c>
-      <c r="F73" s="12">
-        <v>2257</v>
-      </c>
-      <c r="G73" s="12">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="12">
-        <v>91006</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D74" s="12">
-        <v>2292</v>
-      </c>
-      <c r="E74" s="12">
-        <v>2292</v>
-      </c>
-      <c r="F74" s="12">
-        <v>2332</v>
-      </c>
-      <c r="G74" s="12">
-        <v>2332</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="12">
-        <v>91025</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D75" s="12">
-        <v>2292</v>
-      </c>
-      <c r="E75" s="12">
-        <v>2292</v>
-      </c>
-      <c r="F75" s="12">
-        <v>2257</v>
-      </c>
-      <c r="G75" s="12">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="12">
-        <v>91035</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D76" s="12">
-        <v>2292</v>
-      </c>
-      <c r="E76" s="12">
-        <v>2292</v>
-      </c>
-      <c r="F76" s="12">
-        <v>2264</v>
-      </c>
-      <c r="G76" s="12">
-        <v>2264</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="12">
-        <v>91205</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D77" s="12">
-        <v>2292</v>
-      </c>
-      <c r="E77" s="12">
-        <v>2292</v>
-      </c>
-      <c r="F77" s="12">
-        <v>2257</v>
-      </c>
-      <c r="G77" s="12">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="12">
-        <v>91505</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78" s="12">
-        <v>2224</v>
-      </c>
-      <c r="E78" s="12">
-        <v>2224</v>
-      </c>
-      <c r="F78" s="12">
-        <v>2257</v>
-      </c>
-      <c r="G78" s="12">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
-        <v>91525</v>
+        <v>383</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D79" s="12">
-        <v>2224</v>
+        <v>1136</v>
       </c>
       <c r="E79" s="12">
-        <v>2224</v>
+        <v>1136</v>
       </c>
       <c r="F79" s="12">
         <v>2257</v>
@@ -3183,552 +3231,790 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
-        <v>91535</v>
+        <v>441</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D80" s="12">
-        <v>2224</v>
+        <v>2311</v>
       </c>
       <c r="E80" s="12">
-        <v>2224</v>
+        <v>2311</v>
       </c>
       <c r="F80" s="12">
-        <v>2264</v>
+        <v>2257</v>
       </c>
       <c r="G80" s="12">
-        <v>2264</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
-        <v>91545</v>
+        <v>443</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D81" s="12">
-        <v>2224</v>
+        <v>2311</v>
       </c>
       <c r="E81" s="12">
-        <v>2224</v>
+        <v>2311</v>
       </c>
       <c r="F81" s="12">
-        <v>2264</v>
+        <v>2257</v>
       </c>
       <c r="G81" s="12">
-        <v>2264</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
-        <v>91605</v>
+        <v>703</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C82" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D82" s="12">
+        <v>5027</v>
+      </c>
+      <c r="E82" s="12">
+        <v>4066</v>
+      </c>
+      <c r="F82" s="12">
+        <v>2257</v>
+      </c>
+      <c r="G82" s="12">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="12">
+        <v>723</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D83" s="12">
+        <v>5027</v>
+      </c>
+      <c r="E83" s="12">
+        <v>4066</v>
+      </c>
+      <c r="F83" s="12">
+        <v>2257</v>
+      </c>
+      <c r="G83" s="12">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="12">
+        <v>782</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84" s="12">
+        <v>5027</v>
+      </c>
+      <c r="E84" s="12">
+        <v>4066</v>
+      </c>
+      <c r="F84" s="12">
+        <v>2257</v>
+      </c>
+      <c r="G84" s="12">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="12">
+        <v>803</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D85" s="12">
+        <v>5031</v>
+      </c>
+      <c r="E85" s="12">
+        <v>4079</v>
+      </c>
+      <c r="F85" s="12">
+        <v>2257</v>
+      </c>
+      <c r="G85" s="12">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="12">
+        <v>822</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" s="12">
+        <v>5030</v>
+      </c>
+      <c r="E86" s="12">
+        <v>4066</v>
+      </c>
+      <c r="F86" s="12">
+        <v>2257</v>
+      </c>
+      <c r="G86" s="12">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="12">
+        <v>3055</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" s="12">
+        <v>2222</v>
+      </c>
+      <c r="E87" s="12">
+        <v>2222</v>
+      </c>
+      <c r="F87" s="12">
+        <v>2257</v>
+      </c>
+      <c r="G87" s="12">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="12">
+        <v>14503</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="12">
+        <v>1140</v>
+      </c>
+      <c r="E88" s="12">
+        <v>1140</v>
+      </c>
+      <c r="F88" s="12">
+        <v>2257</v>
+      </c>
+      <c r="G88" s="12">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="12">
+        <v>14504</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" s="12">
+        <v>5018</v>
+      </c>
+      <c r="E89" s="12">
+        <v>4075</v>
+      </c>
+      <c r="F89" s="12">
+        <v>2257</v>
+      </c>
+      <c r="G89" s="12">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="12">
+        <v>50835</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="12">
+        <v>2222</v>
+      </c>
+      <c r="E90" s="12">
+        <v>2222</v>
+      </c>
+      <c r="F90" s="12">
+        <v>2264</v>
+      </c>
+      <c r="G90" s="12">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="12">
+        <v>58005</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" s="12">
+        <v>5017</v>
+      </c>
+      <c r="E91" s="12">
+        <v>4074</v>
+      </c>
+      <c r="F91" s="12">
+        <v>2264</v>
+      </c>
+      <c r="G91" s="12">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="12">
+        <v>68005</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="12">
+        <v>5017</v>
+      </c>
+      <c r="E92" s="12">
+        <v>4074</v>
+      </c>
+      <c r="F92" s="12">
+        <v>2264</v>
+      </c>
+      <c r="G92" s="12">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="12">
+        <v>91005</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="12">
+        <v>2292</v>
+      </c>
+      <c r="E93" s="12">
+        <v>2292</v>
+      </c>
+      <c r="F93" s="12">
+        <v>2257</v>
+      </c>
+      <c r="G93" s="12">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="12">
+        <v>91006</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D94" s="12">
+        <v>2292</v>
+      </c>
+      <c r="E94" s="12">
+        <v>2292</v>
+      </c>
+      <c r="F94" s="12">
+        <v>2332</v>
+      </c>
+      <c r="G94" s="12">
+        <v>2332</v>
+      </c>
+      <c r="H94" s="9"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="12">
+        <v>91025</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95" s="12">
+        <v>2292</v>
+      </c>
+      <c r="E95" s="12">
+        <v>2292</v>
+      </c>
+      <c r="F95" s="12">
+        <v>2257</v>
+      </c>
+      <c r="G95" s="12">
+        <v>2257</v>
+      </c>
+      <c r="H95" s="9"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="12">
+        <v>91035</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96" s="12">
+        <v>2292</v>
+      </c>
+      <c r="E96" s="12">
+        <v>2292</v>
+      </c>
+      <c r="F96" s="12">
+        <v>2264</v>
+      </c>
+      <c r="G96" s="12">
+        <v>2264</v>
+      </c>
+      <c r="H96" s="9"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="12">
+        <v>91205</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" s="12">
+        <v>2292</v>
+      </c>
+      <c r="E97" s="12">
+        <v>2292</v>
+      </c>
+      <c r="F97" s="12">
+        <v>2257</v>
+      </c>
+      <c r="G97" s="12">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="12">
+        <v>91505</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" s="12">
+        <v>2224</v>
+      </c>
+      <c r="E98" s="12">
+        <v>2224</v>
+      </c>
+      <c r="F98" s="12">
+        <v>2257</v>
+      </c>
+      <c r="G98" s="12">
+        <v>2257</v>
+      </c>
+      <c r="H98" s="9"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="12">
+        <v>91525</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99" s="12">
+        <v>2224</v>
+      </c>
+      <c r="E99" s="12">
+        <v>2224</v>
+      </c>
+      <c r="F99" s="12">
+        <v>2257</v>
+      </c>
+      <c r="G99" s="12">
+        <v>2257</v>
+      </c>
+      <c r="H99" s="9"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="12">
+        <v>91535</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" s="12">
+        <v>2224</v>
+      </c>
+      <c r="E100" s="12">
+        <v>2224</v>
+      </c>
+      <c r="F100" s="12">
+        <v>2264</v>
+      </c>
+      <c r="G100" s="12">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="12">
+        <v>91545</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101" s="12">
+        <v>2224</v>
+      </c>
+      <c r="E101" s="12">
+        <v>2224</v>
+      </c>
+      <c r="F101" s="12">
+        <v>2264</v>
+      </c>
+      <c r="G101" s="12">
+        <v>2264</v>
+      </c>
+      <c r="H101" s="9"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="12">
+        <v>91605</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D102" s="12">
         <v>2224</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E102" s="12">
         <v>2224</v>
       </c>
-      <c r="F82" s="12">
-        <v>2257</v>
-      </c>
-      <c r="G82" s="12">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="12" t="s">
+      <c r="F102" s="12">
+        <v>2257</v>
+      </c>
+      <c r="G102" s="12">
+        <v>2257</v>
+      </c>
+      <c r="H102" s="9"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B103" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C103" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D103" s="12">
         <v>2265</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E103" s="12">
         <v>2265</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F103" s="12">
         <v>5017</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G103" s="12">
         <v>5017</v>
       </c>
-      <c r="H83" s="9"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="21" t="s">
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B104" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C104" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D104" s="12">
         <v>2262</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E104" s="12">
         <v>2262</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F104" s="12">
         <v>5018</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G104" s="12">
         <v>5018</v>
       </c>
-      <c r="H84" s="9"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="s">
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D105" s="12">
+        <v>2303</v>
+      </c>
+      <c r="E105" s="12">
+        <v>2303</v>
+      </c>
+      <c r="F105" s="12">
+        <v>5019</v>
+      </c>
+      <c r="G105" s="12">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D106" s="12">
+        <v>2299</v>
+      </c>
+      <c r="E106" s="12">
+        <v>2299</v>
+      </c>
+      <c r="F106" s="12">
+        <v>5020</v>
+      </c>
+      <c r="G106" s="12">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107" s="12">
+        <v>2301</v>
+      </c>
+      <c r="E107" s="12">
+        <v>2301</v>
+      </c>
+      <c r="F107" s="12">
+        <v>5019</v>
+      </c>
+      <c r="G107" s="12">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D108" s="12">
+        <v>2297</v>
+      </c>
+      <c r="E108" s="12">
+        <v>2297</v>
+      </c>
+      <c r="F108" s="12">
+        <v>5020</v>
+      </c>
+      <c r="G108" s="12">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="12">
+        <v>2295</v>
+      </c>
+      <c r="E109" s="12">
+        <v>2295</v>
+      </c>
+      <c r="F109" s="12">
+        <v>5010</v>
+      </c>
+      <c r="G109" s="12">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B110" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C110" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D110" s="12">
         <v>2295</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E110" s="12">
         <v>2295</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F110" s="12">
         <v>5010</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G110" s="12">
         <v>4072</v>
       </c>
-      <c r="H85" s="9"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="12">
-        <v>2295</v>
-      </c>
-      <c r="E86" s="12">
-        <v>2295</v>
-      </c>
-      <c r="F86" s="12">
-        <v>5010</v>
-      </c>
-      <c r="G86" s="12">
-        <v>4072</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D87" s="12">
-        <v>2303</v>
-      </c>
-      <c r="E87" s="12">
-        <v>2303</v>
-      </c>
-      <c r="F87" s="12">
-        <v>5019</v>
-      </c>
-      <c r="G87" s="12">
-        <v>5019</v>
-      </c>
-      <c r="H87" s="9"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D88" s="12">
-        <v>2299</v>
-      </c>
-      <c r="E88" s="12">
-        <v>2299</v>
-      </c>
-      <c r="F88" s="12">
-        <v>5020</v>
-      </c>
-      <c r="G88" s="12">
-        <v>5020</v>
-      </c>
-      <c r="H88" s="9"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="12" t="s">
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B111" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C111" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D111" s="12">
         <v>2292</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E111" s="12">
         <v>2292</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F111" s="12">
         <v>5011</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G111" s="12">
         <v>4073</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D90" s="12">
-        <v>2301</v>
-      </c>
-      <c r="E90" s="12">
-        <v>2301</v>
-      </c>
-      <c r="F90" s="12">
-        <v>5019</v>
-      </c>
-      <c r="G90" s="12">
-        <v>5019</v>
-      </c>
-      <c r="H90" s="9"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D91" s="12">
-        <v>2297</v>
-      </c>
-      <c r="E91" s="12">
-        <v>2297</v>
-      </c>
-      <c r="F91" s="12">
-        <v>5020</v>
-      </c>
-      <c r="G91" s="12">
-        <v>5020</v>
-      </c>
-      <c r="H91" s="9"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="12">
-        <v>17022</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D92" s="12">
-        <v>2257</v>
-      </c>
-      <c r="E92" s="12">
-        <v>2257</v>
-      </c>
-      <c r="F92" s="12">
-        <v>5018</v>
-      </c>
-      <c r="G92" s="12">
-        <v>4075</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="12">
-        <v>17023</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D93" s="12">
-        <v>2257</v>
-      </c>
-      <c r="E93" s="12">
-        <v>2257</v>
-      </c>
-      <c r="F93" s="12">
-        <v>5018</v>
-      </c>
-      <c r="G93" s="12">
-        <v>4075</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="12">
-        <v>81505</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D94" s="12">
-        <v>2257</v>
-      </c>
-      <c r="E94" s="12">
-        <v>2257</v>
-      </c>
-      <c r="F94" s="12">
-        <v>5027</v>
-      </c>
-      <c r="G94" s="12">
-        <v>4066</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="12">
-        <v>81532</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D95" s="12">
-        <v>2257</v>
-      </c>
-      <c r="E95" s="12">
-        <v>2257</v>
-      </c>
-      <c r="F95" s="12">
-        <v>5027</v>
-      </c>
-      <c r="G95" s="12">
-        <v>4066</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="12">
-        <v>154</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D96" s="12">
-        <v>2257</v>
-      </c>
-      <c r="E96" s="12">
-        <v>2257</v>
-      </c>
-      <c r="F96" s="12">
-        <v>5027</v>
-      </c>
-      <c r="G96" s="12">
-        <v>4066</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="12"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="12"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="12"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="12"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="12"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="12"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="12"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="12"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="12"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="12"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="12"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="12"/>
+      <c r="C112" s="16"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
       <c r="G112" s="12"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
-      <c r="C113" s="14"/>
+      <c r="C113" s="16"/>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
       <c r="G113" s="12"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C114" s="14"/>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="12"/>
+      <c r="C114" s="16"/>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
       <c r="G114" s="12"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="12"/>
+      <c r="C115" s="16"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
-      <c r="C116" s="14"/>
+      <c r="C116" s="16"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
       <c r="C117" s="14"/>
       <c r="D117" s="12"/>
@@ -3736,23 +4022,19 @@
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="12"/>
-      <c r="C118" s="14"/>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
       <c r="G118" s="12"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="12"/>
-      <c r="C119" s="14"/>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="C120" s="14"/>
       <c r="D120" s="12"/>
@@ -3760,7 +4042,7 @@
       <c r="F120" s="12"/>
       <c r="G120" s="12"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="C121" s="14"/>
       <c r="D121" s="12"/>
@@ -3768,7 +4050,7 @@
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="C122" s="14"/>
       <c r="D122" s="12"/>
@@ -3776,19 +4058,21 @@
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="12"/>
+      <c r="C123" s="14"/>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="C125" s="14"/>
       <c r="D125" s="12"/>
@@ -3796,19 +4080,19 @@
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="C128" s="14"/>
       <c r="D128" s="12"/>
@@ -3816,23 +4100,20 @@
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="12"/>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C129" s="14"/>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="12"/>
-      <c r="C130" s="14"/>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="C131" s="14"/>
       <c r="D131" s="12"/>
@@ -3840,7 +4121,7 @@
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="C132" s="14"/>
       <c r="D132" s="12"/>
@@ -3848,7 +4129,7 @@
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="C133" s="14"/>
       <c r="D133" s="12"/>
@@ -3856,7 +4137,7 @@
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="C134" s="14"/>
       <c r="D134" s="12"/>
@@ -3864,7 +4145,7 @@
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
       <c r="C135" s="14"/>
       <c r="D135" s="12"/>
@@ -3872,13 +4153,15 @@
       <c r="F135" s="12"/>
       <c r="G135" s="12"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="12"/>
+      <c r="C136" s="14"/>
       <c r="D136" s="12"/>
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
       <c r="G136" s="12"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
       <c r="C137" s="14"/>
       <c r="D137" s="12"/>
@@ -3886,42 +4169,39 @@
       <c r="F137" s="12"/>
       <c r="G137" s="12"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
       <c r="G138" s="12"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="12"/>
-      <c r="C139" s="14"/>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D139" s="12"/>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="12"/>
       <c r="C140" s="14"/>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
       <c r="G140" s="12"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
       <c r="G141" s="12"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="12"/>
-      <c r="C142" s="14"/>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
       <c r="C143" s="14"/>
       <c r="D143" s="12"/>
@@ -3929,7 +4209,7 @@
       <c r="F143" s="12"/>
       <c r="G143" s="12"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
       <c r="C144" s="14"/>
       <c r="D144" s="12"/>
@@ -3937,7 +4217,7 @@
       <c r="F144" s="12"/>
       <c r="G144" s="12"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
       <c r="C145" s="14"/>
       <c r="D145" s="12"/>
@@ -3945,7 +4225,7 @@
       <c r="F145" s="12"/>
       <c r="G145" s="12"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="C146" s="14"/>
       <c r="D146" s="12"/>
@@ -3953,7 +4233,7 @@
       <c r="F146" s="12"/>
       <c r="G146" s="12"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
       <c r="C147" s="14"/>
       <c r="D147" s="12"/>
@@ -3961,19 +4241,23 @@
       <c r="F147" s="12"/>
       <c r="G147" s="12"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="12"/>
+      <c r="C148" s="14"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
       <c r="F148" s="12"/>
       <c r="G148" s="12"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="12"/>
+      <c r="C149" s="14"/>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="12"/>
       <c r="C150" s="14"/>
       <c r="D150" s="12"/>
@@ -3981,14 +4265,13 @@
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="12"/>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D151" s="12"/>
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="C152" s="14"/>
       <c r="D152" s="12"/>
@@ -3996,43 +4279,42 @@
       <c r="F152" s="12"/>
       <c r="G152" s="12"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C153" s="14"/>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
       <c r="G153" s="12"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
+      <c r="C154" s="14"/>
       <c r="D154" s="12"/>
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
       <c r="G154" s="12"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="12"/>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C155" s="14"/>
       <c r="D155" s="12"/>
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
       <c r="G155" s="12"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="12"/>
-      <c r="C156" s="14"/>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D156" s="12"/>
       <c r="E156" s="12"/>
       <c r="F156" s="12"/>
       <c r="G156" s="12"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="12"/>
       <c r="C157" s="14"/>
       <c r="D157" s="12"/>
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
       <c r="G157" s="12"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="12"/>
       <c r="C158" s="14"/>
       <c r="D158" s="12"/>
@@ -4040,7 +4322,7 @@
       <c r="F158" s="12"/>
       <c r="G158" s="12"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
       <c r="C159" s="14"/>
       <c r="D159" s="12"/>
@@ -4048,49 +4330,58 @@
       <c r="F159" s="12"/>
       <c r="G159" s="12"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="12"/>
+      <c r="C160" s="14"/>
       <c r="D160" s="12"/>
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
       <c r="G160" s="12"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="12"/>
+      <c r="C161" s="14"/>
       <c r="D161" s="12"/>
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="12"/>
+      <c r="C162" s="14"/>
       <c r="D162" s="12"/>
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
       <c r="G162" s="12"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
       <c r="G163" s="12"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
       <c r="F164" s="12"/>
       <c r="G164" s="12"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="12"/>
+      <c r="C165" s="14"/>
       <c r="D165" s="12"/>
       <c r="E165" s="12"/>
       <c r="F165" s="12"/>
       <c r="G165" s="12"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="12"/>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
       <c r="F166" s="12"/>
       <c r="G166" s="12"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
       <c r="C167" s="14"/>
       <c r="D167" s="12"/>
@@ -4098,39 +4389,43 @@
       <c r="F167" s="12"/>
       <c r="G167" s="12"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="12"/>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C168" s="14"/>
       <c r="D168" s="12"/>
       <c r="E168" s="12"/>
       <c r="F168" s="12"/>
       <c r="G168" s="12"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
       <c r="F169" s="12"/>
       <c r="G169" s="12"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="12"/>
+      <c r="C170" s="14"/>
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
       <c r="F170" s="12"/>
       <c r="G170" s="12"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="12"/>
+      <c r="C171" s="14"/>
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
       <c r="F171" s="12"/>
       <c r="G171" s="12"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C172" s="14"/>
       <c r="D172" s="12"/>
       <c r="E172" s="12"/>
       <c r="F172" s="12"/>
       <c r="G172" s="12"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="12"/>
       <c r="C173" s="14"/>
       <c r="D173" s="12"/>
@@ -4138,7 +4433,7 @@
       <c r="F173" s="12"/>
       <c r="G173" s="12"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="12"/>
       <c r="C174" s="14"/>
       <c r="D174" s="12"/>
@@ -4146,59 +4441,49 @@
       <c r="F174" s="12"/>
       <c r="G174" s="12"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="12"/>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D175" s="12"/>
       <c r="E175" s="12"/>
       <c r="F175" s="12"/>
       <c r="G175" s="12"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="12"/>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D176" s="12"/>
       <c r="E176" s="12"/>
       <c r="F176" s="12"/>
       <c r="G176" s="12"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D177" s="12"/>
       <c r="E177" s="12"/>
       <c r="F177" s="12"/>
       <c r="G177" s="12"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="12"/>
-      <c r="C178" s="14"/>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D178" s="12"/>
       <c r="E178" s="12"/>
       <c r="F178" s="12"/>
       <c r="G178" s="12"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="12"/>
-      <c r="C179" s="14"/>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D179" s="12"/>
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="12"/>
-      <c r="C180" s="14"/>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D180" s="12"/>
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="12"/>
-      <c r="C181" s="14"/>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D181" s="12"/>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="12"/>
       <c r="C182" s="14"/>
       <c r="D182" s="12"/>
@@ -4206,74 +4491,75 @@
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="12"/>
+      <c r="C183" s="14"/>
       <c r="D183" s="12"/>
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D184" s="12"/>
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="12"/>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D185" s="12"/>
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
       <c r="G185" s="12"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C186" s="14"/>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D186" s="12"/>
       <c r="E186" s="12"/>
       <c r="F186" s="12"/>
       <c r="G186" s="12"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C187" s="14"/>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D187" s="12"/>
       <c r="E187" s="12"/>
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="12"/>
       <c r="C188" s="14"/>
       <c r="D188" s="12"/>
       <c r="E188" s="12"/>
       <c r="F188" s="12"/>
       <c r="G188" s="12"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="12"/>
       <c r="C189" s="14"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
       <c r="G189" s="12"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="12"/>
       <c r="D190" s="12"/>
       <c r="E190" s="12"/>
       <c r="F190" s="12"/>
       <c r="G190" s="12"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="12"/>
       <c r="D191" s="12"/>
       <c r="E191" s="12"/>
       <c r="F191" s="12"/>
       <c r="G191" s="12"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C192" s="14"/>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D192" s="12"/>
       <c r="E192" s="12"/>
       <c r="F192" s="12"/>
       <c r="G192" s="12"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="12"/>
       <c r="C193" s="14"/>
       <c r="D193" s="12"/>
@@ -4281,7 +4567,7 @@
       <c r="F193" s="12"/>
       <c r="G193" s="12"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="12"/>
       <c r="C194" s="14"/>
       <c r="D194" s="12"/>
@@ -4289,7 +4575,7 @@
       <c r="F194" s="12"/>
       <c r="G194" s="12"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="12"/>
       <c r="C195" s="14"/>
       <c r="D195" s="12"/>
@@ -4297,86 +4583,90 @@
       <c r="F195" s="12"/>
       <c r="G195" s="12"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="12"/>
+      <c r="C196" s="14"/>
       <c r="D196" s="12"/>
       <c r="E196" s="12"/>
       <c r="F196" s="12"/>
       <c r="G196" s="12"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="12"/>
+      <c r="C197" s="14"/>
       <c r="D197" s="12"/>
       <c r="E197" s="12"/>
       <c r="F197" s="12"/>
       <c r="G197" s="12"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D198" s="12"/>
       <c r="E198" s="12"/>
       <c r="F198" s="12"/>
       <c r="G198" s="12"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D199" s="12"/>
       <c r="E199" s="12"/>
       <c r="F199" s="12"/>
       <c r="G199" s="12"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="12"/>
       <c r="D200" s="12"/>
       <c r="E200" s="12"/>
       <c r="F200" s="12"/>
       <c r="G200" s="12"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C201" s="14"/>
       <c r="D201" s="12"/>
       <c r="E201" s="12"/>
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202" s="12"/>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C202" s="14"/>
       <c r="D202" s="12"/>
       <c r="E202" s="12"/>
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C203" s="14"/>
       <c r="D203" s="12"/>
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="12"/>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C204" s="14"/>
       <c r="D204" s="12"/>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C205" s="14"/>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D205" s="12"/>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
       <c r="G205" s="12"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="12"/>
       <c r="D206" s="12"/>
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C207" s="14"/>
       <c r="D207" s="12"/>
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
       <c r="G207" s="12"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="12"/>
       <c r="C208" s="14"/>
       <c r="D208" s="12"/>
@@ -4384,7 +4674,7 @@
       <c r="F208" s="12"/>
       <c r="G208" s="12"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
       <c r="C209" s="14"/>
       <c r="D209" s="12"/>
@@ -4392,7 +4682,7 @@
       <c r="F209" s="12"/>
       <c r="G209" s="12"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="12"/>
       <c r="C210" s="14"/>
       <c r="D210" s="12"/>
@@ -4400,86 +4690,86 @@
       <c r="F210" s="12"/>
       <c r="G210" s="12"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="12"/>
-      <c r="C211" s="14"/>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D211" s="12"/>
       <c r="E211" s="12"/>
       <c r="F211" s="12"/>
       <c r="G211" s="12"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D212" s="12"/>
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
       <c r="G212" s="12"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D213" s="12"/>
       <c r="E213" s="12"/>
       <c r="F213" s="12"/>
       <c r="G213" s="12"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D214" s="12"/>
       <c r="E214" s="12"/>
       <c r="F214" s="12"/>
       <c r="G214" s="12"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D215" s="12"/>
       <c r="E215" s="12"/>
       <c r="F215" s="12"/>
       <c r="G215" s="12"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D216" s="12"/>
       <c r="E216" s="12"/>
       <c r="F216" s="12"/>
       <c r="G216" s="12"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="12"/>
+      <c r="C217" s="14"/>
       <c r="D217" s="12"/>
       <c r="E217" s="12"/>
       <c r="F217" s="12"/>
       <c r="G217" s="12"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C218" s="14"/>
       <c r="D218" s="12"/>
       <c r="E218" s="12"/>
       <c r="F218" s="12"/>
       <c r="G218" s="12"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="12"/>
+      <c r="C219" s="14"/>
       <c r="D219" s="12"/>
       <c r="E219" s="12"/>
       <c r="F219" s="12"/>
       <c r="G219" s="12"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="12"/>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C220" s="14"/>
       <c r="D220" s="12"/>
       <c r="E220" s="12"/>
       <c r="F220" s="12"/>
       <c r="G220" s="12"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" s="12"/>
-      <c r="C221" s="14"/>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D221" s="12"/>
       <c r="E221" s="12"/>
       <c r="F221" s="12"/>
       <c r="G221" s="12"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="12"/>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C222" s="14"/>
       <c r="D222" s="12"/>
       <c r="E222" s="12"/>
       <c r="F222" s="12"/>
       <c r="G222" s="12"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="12"/>
       <c r="C223" s="14"/>
       <c r="D223" s="12"/>
@@ -4487,7 +4777,7 @@
       <c r="F223" s="12"/>
       <c r="G223" s="12"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="12"/>
       <c r="C224" s="14"/>
       <c r="D224" s="12"/>
@@ -4495,13 +4785,15 @@
       <c r="F224" s="12"/>
       <c r="G224" s="12"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="12"/>
+      <c r="C225" s="14"/>
       <c r="D225" s="12"/>
       <c r="E225" s="12"/>
       <c r="F225" s="12"/>
       <c r="G225" s="12"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
       <c r="C226" s="14"/>
       <c r="D226" s="12"/>
@@ -4509,71 +4801,172 @@
       <c r="F226" s="12"/>
       <c r="G226" s="12"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A227" s="12"/>
-      <c r="C227" s="14"/>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D227" s="12"/>
       <c r="E227" s="12"/>
       <c r="F227" s="12"/>
       <c r="G227" s="12"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A228" s="12"/>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D228" s="12"/>
       <c r="E228" s="12"/>
       <c r="F228" s="12"/>
       <c r="G228" s="12"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A229" s="12"/>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D229" s="12"/>
       <c r="E229" s="12"/>
       <c r="F229" s="12"/>
       <c r="G229" s="12"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C230" s="14"/>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D230" s="12"/>
       <c r="E230" s="12"/>
       <c r="F230" s="12"/>
       <c r="G230" s="12"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D231" s="12"/>
       <c r="E231" s="12"/>
       <c r="F231" s="12"/>
       <c r="G231" s="12"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D232" s="12"/>
       <c r="E232" s="12"/>
       <c r="F232" s="12"/>
       <c r="G232" s="12"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A233" s="12"/>
-      <c r="C233" s="14"/>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D233" s="12"/>
       <c r="E233" s="12"/>
       <c r="F233" s="12"/>
       <c r="G233" s="12"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D234" s="12"/>
       <c r="E234" s="12"/>
       <c r="F234" s="12"/>
       <c r="G234" s="12"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="12"/>
       <c r="D235" s="12"/>
       <c r="E235" s="12"/>
       <c r="F235" s="12"/>
       <c r="G235" s="12"/>
     </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="12"/>
+      <c r="C236" s="14"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
+      <c r="F236" s="12"/>
+      <c r="G236" s="12"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="12"/>
+      <c r="C237" s="14"/>
+      <c r="D237" s="12"/>
+      <c r="E237" s="12"/>
+      <c r="F237" s="12"/>
+      <c r="G237" s="12"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="12"/>
+      <c r="C238" s="14"/>
+      <c r="D238" s="12"/>
+      <c r="E238" s="12"/>
+      <c r="F238" s="12"/>
+      <c r="G238" s="12"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="12"/>
+      <c r="C239" s="14"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12"/>
+      <c r="F239" s="12"/>
+      <c r="G239" s="12"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D240" s="12"/>
+      <c r="E240" s="12"/>
+      <c r="F240" s="12"/>
+      <c r="G240" s="12"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="12"/>
+      <c r="C241" s="14"/>
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
+      <c r="F241" s="12"/>
+      <c r="G241" s="12"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="12"/>
+      <c r="C242" s="14"/>
+      <c r="D242" s="12"/>
+      <c r="E242" s="12"/>
+      <c r="F242" s="12"/>
+      <c r="G242" s="12"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="12"/>
+      <c r="D243" s="12"/>
+      <c r="E243" s="12"/>
+      <c r="F243" s="12"/>
+      <c r="G243" s="12"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="12"/>
+      <c r="D244" s="12"/>
+      <c r="E244" s="12"/>
+      <c r="F244" s="12"/>
+      <c r="G244" s="12"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C245" s="14"/>
+      <c r="D245" s="12"/>
+      <c r="E245" s="12"/>
+      <c r="F245" s="12"/>
+      <c r="G245" s="12"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D246" s="12"/>
+      <c r="E246" s="12"/>
+      <c r="F246" s="12"/>
+      <c r="G246" s="12"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D247" s="12"/>
+      <c r="E247" s="12"/>
+      <c r="F247" s="12"/>
+      <c r="G247" s="12"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="12"/>
+      <c r="C248" s="14"/>
+      <c r="D248" s="12"/>
+      <c r="E248" s="12"/>
+      <c r="F248" s="12"/>
+      <c r="G248" s="12"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D249" s="12"/>
+      <c r="E249" s="12"/>
+      <c r="F249" s="12"/>
+      <c r="G249" s="12"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D250" s="12"/>
+      <c r="E250" s="12"/>
+      <c r="F250" s="12"/>
+      <c r="G250" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O96" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H235">
-    <sortCondition ref="A2:A235"/>
+  <autoFilter ref="A1:O107" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H246">
+    <sortCondition ref="A2:A246"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4588,15 +4981,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -4610,7 +5003,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4624,7 +5017,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>79</v>
       </c>
@@ -4638,18 +5031,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="19"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
     </row>
   </sheetData>
@@ -4666,13 +5059,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
@@ -4680,7 +5073,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>76</v>
       </c>
@@ -4688,16 +5081,16 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" s="8"/>
     </row>
   </sheetData>
